--- a/test.xlsx
+++ b/test.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
   <si>
     <t>CPU</t>
   </si>
@@ -55,6 +55,13 @@
   <si>
     <t>Memory</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Intel(R) Xeon(TM) CPU 3.60GHz</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>./main -batchsize 5000 -duration 5000 -maxpending 10000</t>
   </si>
 </sst>
 </file>
@@ -398,10 +405,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J2"/>
+  <dimension ref="A1:J6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -480,6 +487,22 @@
         <v>1825</v>
       </c>
     </row>
+    <row r="3" spans="1:10">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10">
+      <c r="B6" t="s">
+        <v>12</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/test.xlsx
+++ b/test.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="16">
   <si>
     <t>CPU</t>
   </si>
@@ -37,10 +37,21 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>Intel(R) Xeon(TM) CPU 3.60GHz</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>"tcp": {"tcpConnections": 0, "tcpDecodeError": 5, "tcpEventsRx": 724800}</t>
+  </si>
+  <si>
     <t>Brand</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>Memory</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>Events</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -53,22 +64,26 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Memory</t>
+    <t>Client count</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Intel(R) Xeon(TM) CPU 3.60GHz</t>
+    <t>watch "ps -C main  -o user,pid,pcpu,pmem,size,vsize,cmd"</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>./main -batchsize 5000 -duration 5000 -maxpending 10000</t>
+    <t>watch "netstat -an | grep 8808"</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+  <numFmts count="2">
+    <numFmt numFmtId="181" formatCode="#,##0_);[Red]\(#,##0\)"/>
+    <numFmt numFmtId="183" formatCode="ss"/>
+  </numFmts>
+  <fonts count="4">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -84,13 +99,40 @@
       <charset val="129"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial Unicode MS"/>
+      <family val="3"/>
+      <charset val="129"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF0070C0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -107,8 +149,29 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="21" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="181" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="183" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="181" fontId="3" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="181" fontId="3" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -405,102 +468,437 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J6"/>
+  <dimension ref="A1:L16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="G3" sqref="G3:H4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
     <col min="1" max="1" width="5.25" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="20.375" customWidth="1"/>
-    <col min="3" max="3" width="9.125" customWidth="1"/>
-    <col min="4" max="4" width="10" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="18.625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="7" customWidth="1"/>
+    <col min="2" max="2" width="29.625" customWidth="1"/>
+    <col min="3" max="3" width="9.125" style="3" customWidth="1"/>
+    <col min="4" max="4" width="10" style="3" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.125" style="3" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="18.625" style="3" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.125" style="3" customWidth="1"/>
+    <col min="8" max="8" width="9.875" style="3" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="9" style="3"/>
+    <col min="11" max="11" width="11.75" style="3" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10">
-      <c r="A1" t="s">
+    <row r="1" spans="1:12">
+      <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C1" t="s">
+      <c r="B1" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="C1" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="D1" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="E1" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="G1" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="H1" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="D1" t="s">
-        <v>1</v>
-      </c>
-      <c r="E1" t="s">
-        <v>2</v>
-      </c>
-      <c r="F1" t="s">
-        <v>3</v>
-      </c>
-      <c r="G1" t="s">
-        <v>7</v>
-      </c>
-      <c r="H1" t="s">
-        <v>8</v>
-      </c>
-      <c r="I1" t="s">
-        <v>9</v>
-      </c>
-      <c r="J1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10">
+      <c r="I1" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="J1" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="K1" s="5" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12">
       <c r="A2">
         <v>2</v>
       </c>
       <c r="B2" t="s">
         <v>5</v>
       </c>
-      <c r="C2">
+      <c r="C2" s="3">
         <v>8</v>
       </c>
-      <c r="D2">
+      <c r="D2" s="3">
         <v>5000</v>
       </c>
-      <c r="E2">
+      <c r="E2" s="3">
+        <v>10000</v>
+      </c>
+      <c r="F2" s="3">
         <v>5000</v>
       </c>
-      <c r="F2">
-        <v>10000</v>
-      </c>
-      <c r="G2">
+      <c r="G2" s="3">
+        <v>1</v>
+      </c>
+      <c r="H2" s="3">
         <v>18250</v>
       </c>
-      <c r="H2">
+      <c r="I2" s="3">
         <v>0</v>
       </c>
-      <c r="I2">
+      <c r="J2" s="3">
         <v>10</v>
       </c>
-      <c r="J2">
-        <f>G2/I2</f>
+      <c r="K2" s="3">
+        <f>H2/J2</f>
         <v>1825</v>
       </c>
-    </row>
-    <row r="3" spans="1:10">
+      <c r="L2">
+        <f>K2/G2</f>
+        <v>1825</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12">
       <c r="A3">
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>11</v>
-      </c>
-      <c r="C3">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10">
+        <v>6</v>
+      </c>
+      <c r="C3" s="3">
+        <v>4</v>
+      </c>
+      <c r="D3" s="3">
+        <v>1000</v>
+      </c>
+      <c r="E3" s="3">
+        <v>1000</v>
+      </c>
+      <c r="F3" s="3">
+        <v>5000</v>
+      </c>
+      <c r="G3" s="3">
+        <v>1</v>
+      </c>
+      <c r="H3" s="3">
+        <v>240000</v>
+      </c>
+      <c r="I3" s="3">
+        <v>0</v>
+      </c>
+      <c r="J3" s="3">
+        <v>100</v>
+      </c>
+      <c r="K3" s="3">
+        <f t="shared" ref="K3:K10" si="0">H3/J3</f>
+        <v>2400</v>
+      </c>
+      <c r="L3">
+        <f t="shared" ref="L3:L9" si="1">K3/G3</f>
+        <v>2400</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12">
+      <c r="A4">
+        <v>2</v>
+      </c>
+      <c r="B4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C4" s="3">
+        <v>4</v>
+      </c>
+      <c r="D4" s="3">
+        <v>1000</v>
+      </c>
+      <c r="E4" s="3">
+        <v>1000</v>
+      </c>
+      <c r="F4" s="3">
+        <v>5000</v>
+      </c>
+      <c r="G4" s="3">
+        <v>1</v>
+      </c>
+      <c r="H4" s="3">
+        <v>720000</v>
+      </c>
+      <c r="I4" s="3">
+        <v>0</v>
+      </c>
+      <c r="J4" s="3">
+        <v>176</v>
+      </c>
+      <c r="K4" s="3">
+        <f t="shared" si="0"/>
+        <v>4090.909090909091</v>
+      </c>
+      <c r="L4">
+        <f t="shared" si="1"/>
+        <v>4090.909090909091</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12">
+      <c r="A5">
+        <v>2</v>
+      </c>
+      <c r="B5" t="s">
+        <v>6</v>
+      </c>
+      <c r="C5" s="3">
+        <v>4</v>
+      </c>
+      <c r="D5" s="3">
+        <v>1000</v>
+      </c>
+      <c r="E5" s="3">
+        <v>1000</v>
+      </c>
+      <c r="F5" s="3">
+        <v>5000</v>
+      </c>
+      <c r="G5" s="3">
+        <v>3</v>
+      </c>
+      <c r="H5" s="3">
+        <v>1200000</v>
+      </c>
+      <c r="I5" s="3">
+        <v>0</v>
+      </c>
+      <c r="J5" s="3">
+        <v>247</v>
+      </c>
+      <c r="K5" s="3">
+        <f t="shared" si="0"/>
+        <v>4858.2995951417006</v>
+      </c>
+      <c r="L5">
+        <f t="shared" si="1"/>
+        <v>1619.4331983805669</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12">
+      <c r="A6">
+        <v>2</v>
+      </c>
       <c r="B6" t="s">
-        <v>12</v>
+        <v>6</v>
+      </c>
+      <c r="C6" s="3">
+        <v>4</v>
+      </c>
+      <c r="D6" s="3">
+        <v>1000</v>
+      </c>
+      <c r="E6" s="3">
+        <v>1000</v>
+      </c>
+      <c r="F6" s="3">
+        <v>5000</v>
+      </c>
+      <c r="G6" s="3">
+        <v>4</v>
+      </c>
+      <c r="H6" s="3">
+        <v>3200000</v>
+      </c>
+      <c r="I6" s="3">
+        <v>0</v>
+      </c>
+      <c r="J6" s="3">
+        <v>610</v>
+      </c>
+      <c r="K6" s="3">
+        <f t="shared" si="0"/>
+        <v>5245.9016393442625</v>
+      </c>
+      <c r="L6">
+        <f t="shared" si="1"/>
+        <v>1311.4754098360656</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12">
+      <c r="A7">
+        <v>2</v>
+      </c>
+      <c r="B7" t="s">
+        <v>6</v>
+      </c>
+      <c r="C7" s="3">
+        <v>4</v>
+      </c>
+      <c r="D7" s="3">
+        <v>1000</v>
+      </c>
+      <c r="E7" s="3">
+        <v>1000</v>
+      </c>
+      <c r="F7" s="3">
+        <v>5000</v>
+      </c>
+      <c r="G7" s="3">
+        <v>4</v>
+      </c>
+      <c r="H7" s="3">
+        <v>8000000</v>
+      </c>
+      <c r="I7" s="3">
+        <v>0</v>
+      </c>
+      <c r="J7" s="3">
+        <v>1623</v>
+      </c>
+      <c r="K7" s="3">
+        <f t="shared" si="0"/>
+        <v>4929.1435613062231</v>
+      </c>
+      <c r="L7">
+        <f t="shared" si="1"/>
+        <v>1232.2858903265558</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12">
+      <c r="A8">
+        <v>2</v>
+      </c>
+      <c r="B8" t="s">
+        <v>6</v>
+      </c>
+      <c r="C8" s="3">
+        <v>4</v>
+      </c>
+      <c r="D8" s="3">
+        <v>5000</v>
+      </c>
+      <c r="E8" s="3">
+        <v>2000</v>
+      </c>
+      <c r="F8" s="3">
+        <v>5000</v>
+      </c>
+      <c r="G8" s="3">
+        <v>4</v>
+      </c>
+      <c r="H8" s="3">
+        <v>8000000</v>
+      </c>
+      <c r="I8" s="3">
+        <v>0</v>
+      </c>
+      <c r="J8" s="3">
+        <v>3307</v>
+      </c>
+      <c r="K8" s="3">
+        <f t="shared" si="0"/>
+        <v>2419.1109767160569</v>
+      </c>
+      <c r="L8">
+        <f t="shared" si="1"/>
+        <v>604.77774417901423</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12">
+      <c r="A9">
+        <v>2</v>
+      </c>
+      <c r="B9" t="s">
+        <v>6</v>
+      </c>
+      <c r="C9" s="3">
+        <v>4</v>
+      </c>
+      <c r="D9" s="3">
+        <v>1000</v>
+      </c>
+      <c r="E9" s="3">
+        <v>2000</v>
+      </c>
+      <c r="F9" s="3">
+        <v>5000</v>
+      </c>
+      <c r="G9" s="3">
+        <v>4</v>
+      </c>
+      <c r="H9" s="3">
+        <v>8000000</v>
+      </c>
+      <c r="J9" s="3">
+        <v>1628</v>
+      </c>
+      <c r="K9" s="3">
+        <f t="shared" si="0"/>
+        <v>4914.0049140049141</v>
+      </c>
+      <c r="L9">
+        <f t="shared" si="1"/>
+        <v>1228.5012285012285</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12">
+      <c r="A10">
+        <v>2</v>
+      </c>
+      <c r="B10" t="s">
+        <v>6</v>
+      </c>
+      <c r="C10" s="3">
+        <v>4</v>
+      </c>
+      <c r="D10" s="3">
+        <v>1000</v>
+      </c>
+      <c r="K10" s="3" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12">
+      <c r="B11" s="1">
+        <v>0.91152777777777771</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12">
+      <c r="B12" s="1">
+        <v>0.9303703703703704</v>
+      </c>
+      <c r="C12" s="3">
+        <f>60*27+8</f>
+        <v>1628</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12">
+      <c r="B13" s="1">
+        <f>B12-B11</f>
+        <v>1.8842592592592688E-2</v>
+      </c>
+      <c r="C13" s="4">
+        <f>B12-B11</f>
+        <v>1.8842592592592688E-2</v>
+      </c>
+      <c r="F13" s="3">
+        <f>H4/C13</f>
+        <v>38211302.21130202</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12">
+      <c r="B14" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12">
+      <c r="B15" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12">
+      <c r="B16" s="2" t="s">
+        <v>7</v>
       </c>
     </row>
   </sheetData>
